--- a/Metadata Schema_version3.xlsx
+++ b/Metadata Schema_version3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8355" tabRatio="699" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8355" tabRatio="699" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata Schema" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="1688">
   <si>
     <t>duration</t>
   </si>
@@ -5054,15 +5054,9 @@
     <t>Should we add the address here? Yes</t>
   </si>
   <si>
-    <t>From molecule and crystal</t>
-  </si>
-  <si>
     <t>Discuss about the binary object that is obtained from openBIS using pyBIS everytime we are exporting a table.</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Address to Supplier. Constant current in Simulation could be a charge density isovalue (electrons/bohr3 -&gt; electrons/m3 (think about the conversions)). Everything in SI Units (however maintain the user friendly units in Comments section). Volts instead of eV for Emax and Emin. Examine the schema drawed in the Lab Notebook. In STM, remove Simulated and Simulation Method because we already have the parent-child connection. Change cantilever in AFM to resonance frequency or something like that (ask experimentalists about it) and change the Units to Hz. </t>
-  </si>
-  <si>
     <t>Resonance frequency or Frequency of the Qplus Tuning Fork</t>
   </si>
   <si>
@@ -5076,6 +5070,42 @@
   </si>
   <si>
     <t>Dataset</t>
+  </si>
+  <si>
+    <t>Results have connection to STM, Simulation, STS, AFM, etc.</t>
+  </si>
+  <si>
+    <t>Change hasPart to isLocated, etc. according to the relation</t>
+  </si>
+  <si>
+    <t>Instrument hasPart TipSensor</t>
+  </si>
+  <si>
+    <t>TipPreparation hasPart TipSensor and Author or Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Address and other details like phone numbers, etc. to Supplier. Constant current in Simulation could be a charge density isovalue (electrons/bohr3 -&gt; electrons/m3 (think about the conversions)). Everything in SI Units (however maintain the user friendly units in Comments section). Volts instead of eV for Emax and Emin. Examine the schema drawed in the Lab Notebook. In STM, remove Simulated and Simulation Method because we already have the parent-child connection. Change cantilever in AFM to resonance frequency or something like that (ask experimentalists about it) and change the Units to Hz. </t>
+  </si>
+  <si>
+    <t>If Chemist is a Person, make a link to a Person object</t>
+  </si>
+  <si>
+    <t>Link Chemist to Institution?? To Supplier??</t>
+  </si>
+  <si>
+    <t>Remove Instrument and UHV Component from the Materials and set them during the experimental procedures. I mean, they should be parents of Sputtering, Annealing, etc and not from Crystal, Molecule, etc. Moreover, remove Room from those Materials because Storage is enough. Storage is linked to Room by default.</t>
+  </si>
+  <si>
+    <t>If Chemist is linked to a Supplier, then remove Supplier from the Materials because Chemist already has that.</t>
+  </si>
+  <si>
+    <t>Add Deposition/Annealing/Sputtering as Parents of STM and STS.</t>
+  </si>
+  <si>
+    <t>Update the DFT, Simulation, etc relations according to the schema defined with Carlo on 7th February.</t>
+  </si>
+  <si>
+    <t>Check semantic annotation in openBIS</t>
   </si>
 </sst>
 </file>
@@ -6074,8 +6104,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J583"/>
   <sheetViews>
-    <sheetView topLeftCell="C115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A509" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -6672,7 +6702,7 @@
         <v>483</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>643</v>
@@ -7563,7 +7593,7 @@
         <v>473</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>648</v>
@@ -21808,7 +21838,7 @@
         <v>1054</v>
       </c>
       <c r="H518" s="9" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="I518" s="4" t="str">
         <f>IF(ISNUMBER(MATCH(Table1[[#This Row],[openBIS]], 'openBIS - parameters'!A:A, 0)), "Exists", "Doesn't Exist")</f>
@@ -23802,10 +23832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -23819,17 +23849,67 @@
         <v>1666</v>
       </c>
       <c r="B1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1671</v>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -23842,8 +23922,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -24400,7 +24480,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>636</v>
@@ -24444,7 +24524,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B57" t="s">
         <v>1036</v>
@@ -26663,7 +26743,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -32509,7 +32589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
